--- a/src/consulta_seriales/seriales.xlsx
+++ b/src/consulta_seriales/seriales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\TeamComunicaciones\automatizadorteam\src\consulta_seriales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\TeamComunicaciones\programa listo\src\consulta_seriales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7817D1E-F35F-4502-9B72-D864456B107B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FFEF62-034C-4337-94CA-66B3C28360C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="2310" windowWidth="14010" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Iccid</t>
+  </si>
+  <si>
+    <t>Imei</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,16 +391,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
